--- a/应用数据库设计.xlsx
+++ b/应用数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765" tabRatio="839" firstSheet="3" activeTab="13"/>
+    <workbookView windowWidth="24000" windowHeight="9840" tabRatio="839" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="605">
   <si>
     <t>智慧发改价格大数据应用平台</t>
   </si>
@@ -1232,7 +1232,7 @@
     <t>D:日  W:周  TD:旬  M:月  Q:季  Y:年</t>
   </si>
   <si>
-    <t>自动时有值 手动时为空</t>
+    <t>自动报告使用：自动时有值 手动时为空</t>
   </si>
   <si>
     <t>rpt_date</t>
@@ -1259,7 +1259,7 @@
     <t>模板路径</t>
   </si>
   <si>
-    <t>自动时，存放模板存放路径</t>
+    <t>自动报告使用：存放模板存放路径</t>
   </si>
   <si>
     <t>生成时间</t>
@@ -1289,13 +1289,28 @@
     <t>附件路径</t>
   </si>
   <si>
-    <t>人工报告</t>
+    <t>人工报告使用</t>
   </si>
   <si>
     <t>rev_status</t>
   </si>
   <si>
-    <t>人工报告 0不审核，1提交审核</t>
+    <t>人工报告使用： 0不审核，1提交审核</t>
+  </si>
+  <si>
+    <t>rpt_template_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 模板名称</t>
+  </si>
+  <si>
+    <t>自动报告使用</t>
+  </si>
+  <si>
+    <t>rpt_attachment_name</t>
+  </si>
+  <si>
+    <t>附件名称</t>
   </si>
   <si>
     <t>表名：PSS_rrun_info(报告任务日志表)</t>
@@ -1918,11 +1933,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2010,6 +2025,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2041,33 +2079,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2097,38 +2144,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2201,6 +2216,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2225,19 +2258,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,12 +2348,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2310,48 +2367,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2582,50 +2597,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2654,6 +2625,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2662,10 +2677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2674,92 +2689,92 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2768,38 +2783,38 @@
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5054,10 +5069,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5210,7 +5225,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" ht="19.5" spans="2:9">
+    <row r="9" ht="38.25" spans="2:9">
       <c r="B9" s="30">
         <v>5</v>
       </c>
@@ -5292,7 +5307,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" ht="19.5" spans="2:9">
+    <row r="13" ht="38.25" spans="2:9">
       <c r="B13" s="30">
         <v>9</v>
       </c>
@@ -5442,6 +5457,50 @@
       <c r="H19" s="29"/>
       <c r="I19" s="29" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" spans="2:9">
+      <c r="B20" s="30">
+        <v>16</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="30">
+        <v>200</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" spans="2:9">
+      <c r="B21" s="30">
+        <v>17</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="30">
+        <v>200</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5498,7 +5557,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -5539,10 +5598,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -5587,10 +5646,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>220</v>
@@ -5607,10 +5666,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>215</v>
@@ -5627,10 +5686,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>215</v>
@@ -5647,10 +5706,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>220</v>
@@ -5667,10 +5726,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>220</v>
@@ -5687,7 +5746,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>113</v>
@@ -5709,10 +5768,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>188</v>
@@ -5778,7 +5837,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -5822,7 +5881,7 @@
         <v>365</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -5939,7 +5998,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="29" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" ht="19.5" spans="2:9">
@@ -5990,7 +6049,7 @@
         <v>380</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>188</v>
@@ -6001,7 +6060,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="30"/>
       <c r="I13" s="29" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" ht="19.5" spans="2:9">
@@ -6025,7 +6084,7 @@
         <v>155</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" ht="19.5" spans="2:9">
@@ -6033,13 +6092,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="40"/>
@@ -6053,10 +6112,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>220</v>
@@ -6124,7 +6183,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -6165,10 +6224,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -6189,10 +6248,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>188</v>
@@ -6211,13 +6270,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -6231,19 +6290,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="50" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" ht="19.5" spans="2:9">
@@ -6380,7 +6439,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -6421,10 +6480,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -6445,10 +6504,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>188</v>
@@ -6467,7 +6526,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>117</v>
@@ -6483,7 +6542,7 @@
         <v>155</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="2:9">
@@ -6491,10 +6550,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>188</v>
@@ -6513,10 +6572,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>188</v>
@@ -6535,10 +6594,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>188</v>
@@ -6558,7 +6617,7 @@
         <v>224</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>188</v>
@@ -6646,7 +6705,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -6687,10 +6746,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -6711,10 +6770,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>188</v>
@@ -6727,7 +6786,7 @@
         <v>155</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" ht="19.5" spans="2:9">
@@ -6735,10 +6794,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>220</v>
@@ -6755,10 +6814,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>188</v>
@@ -6777,7 +6836,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>117</v>
@@ -6793,7 +6852,7 @@
         <v>155</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" ht="19.5" spans="2:9">
@@ -6801,13 +6860,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -6819,13 +6878,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -6837,10 +6896,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>220</v>
@@ -6857,7 +6916,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>113</v>
@@ -6871,7 +6930,7 @@
         <v>155</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" ht="19.5" spans="2:9">
@@ -6879,13 +6938,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -6897,13 +6956,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -7613,7 +7672,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -7654,10 +7713,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -7678,10 +7737,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>188</v>
@@ -7722,10 +7781,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>188</v>
@@ -7744,10 +7803,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>188</v>
@@ -7766,10 +7825,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>188</v>
@@ -7788,10 +7847,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>188</v>
@@ -7804,7 +7863,7 @@
         <v>155</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" ht="19.5" spans="2:9">
@@ -7815,7 +7874,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>188</v>
@@ -7999,7 +8058,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="47" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -8040,10 +8099,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -8064,10 +8123,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>188</v>
@@ -8108,10 +8167,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>188</v>
@@ -8130,10 +8189,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>188</v>
@@ -8152,10 +8211,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>188</v>
@@ -8168,7 +8227,7 @@
         <v>155</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" ht="19.5" spans="2:9">
@@ -8176,10 +8235,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>188</v>
@@ -8192,7 +8251,7 @@
         <v>155</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" ht="19.5" spans="2:9">
@@ -8200,10 +8259,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>188</v>
@@ -8216,7 +8275,7 @@
         <v>155</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" ht="19.5" spans="2:9">
@@ -8224,10 +8283,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>188</v>
@@ -8240,7 +8299,7 @@
         <v>155</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" ht="38.25" spans="2:9">
@@ -8248,10 +8307,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>193</v>
@@ -8262,7 +8321,7 @@
         <v>155</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" ht="19.5" spans="2:9">
@@ -8270,10 +8329,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>188</v>
@@ -8342,7 +8401,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -8383,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>227</v>
@@ -8427,10 +8486,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>183</v>
@@ -8447,10 +8506,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>183</v>
@@ -8467,7 +8526,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>280</v>
@@ -8487,10 +8546,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>188</v>
@@ -8503,7 +8562,7 @@
         <v>155</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" ht="19.5" spans="2:9">
@@ -8511,10 +8570,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>193</v>
@@ -8533,10 +8592,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>220</v>
@@ -8553,10 +8612,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>193</v>
@@ -8573,10 +8632,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>220</v>
@@ -8700,7 +8759,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -8744,7 +8803,7 @@
         <v>277</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -8765,10 +8824,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>183</v>
@@ -8789,10 +8848,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>188</v>
@@ -8811,7 +8870,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>280</v>
@@ -8833,10 +8892,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>188</v>
@@ -8849,7 +8908,7 @@
         <v>155</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" ht="19.5" spans="2:9">
@@ -8857,10 +8916,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>193</v>
@@ -8877,10 +8936,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>220</v>
@@ -9035,7 +9094,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -9076,10 +9135,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -9100,7 +9159,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>134</v>
@@ -9124,10 +9183,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>188</v>
@@ -9146,10 +9205,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>183</v>
@@ -9169,7 +9228,7 @@
         <v>218</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>215</v>
@@ -9211,7 +9270,7 @@
         <v>224</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>188</v>
@@ -9375,7 +9434,7 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
@@ -9387,7 +9446,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -9428,10 +9487,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -9452,10 +9511,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>183</v>
@@ -9476,10 +9535,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>193</v>
@@ -9494,10 +9553,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>193</v>
@@ -9512,10 +9571,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>193</v>
@@ -9530,10 +9589,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>193</v>
@@ -9548,10 +9607,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>193</v>
@@ -9635,7 +9694,7 @@
     </row>
     <row r="3" ht="19.5" spans="2:9">
       <c r="B3" s="36" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -9676,10 +9735,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>183</v>
@@ -9700,10 +9759,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>215</v>
@@ -9742,10 +9801,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>188</v>
@@ -9764,10 +9823,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>188</v>
@@ -9786,10 +9845,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>220</v>
@@ -9806,13 +9865,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -9826,10 +9885,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>188</v>
@@ -9971,7 +10030,7 @@
     </row>
     <row r="2" ht="19.5" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -10039,7 +10098,7 @@
         <v>272</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>183</v>
@@ -10056,10 +10115,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>188</v>
@@ -10078,10 +10137,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>188</v>
@@ -10100,10 +10159,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>188</v>
@@ -10122,10 +10181,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>188</v>
@@ -10138,7 +10197,7 @@
         <v>155</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" ht="19.5" spans="1:8">
@@ -10146,10 +10205,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>188</v>
@@ -10232,7 +10291,7 @@
     </row>
     <row r="2" ht="19.5" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -10297,10 +10356,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>188</v>
@@ -10319,10 +10378,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>188</v>
@@ -10341,10 +10400,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>188</v>
@@ -10363,10 +10422,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>188</v>
@@ -10455,7 +10514,7 @@
     </row>
     <row r="2" ht="19.5" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -10523,7 +10582,7 @@
         <v>272</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>188</v>
@@ -10542,10 +10601,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>188</v>
@@ -10564,10 +10623,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>188</v>
@@ -10586,7 +10645,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>379</v>
@@ -10608,10 +10667,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>188</v>
@@ -10630,10 +10689,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>188</v>
@@ -10652,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>188</v>
@@ -10674,10 +10733,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>188</v>
@@ -10716,10 +10775,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>188</v>
@@ -11306,7 +11365,7 @@
     </row>
     <row r="2" ht="19.5" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -11371,10 +11430,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>188</v>
@@ -11393,10 +11452,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>188</v>
@@ -11415,7 +11474,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>379</v>
@@ -11437,10 +11496,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>188</v>
@@ -11459,10 +11518,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>188</v>
@@ -11481,10 +11540,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>193</v>
@@ -11503,10 +11562,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>193</v>
@@ -11525,10 +11584,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>193</v>
@@ -11567,10 +11626,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>188</v>
@@ -11637,7 +11696,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -11678,10 +11737,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>183</v>
@@ -11744,10 +11803,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>244</v>
@@ -11766,10 +11825,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>244</v>
@@ -11788,10 +11847,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="22"/>
@@ -11806,10 +11865,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="22"/>
@@ -11824,10 +11883,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>244</v>
@@ -11849,7 +11908,7 @@
         <v>254</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>244</v>
@@ -11868,7 +11927,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>97</v>
@@ -11888,10 +11947,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>244</v>
@@ -11910,10 +11969,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>244</v>
@@ -11954,10 +12013,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>244</v>
@@ -12022,7 +12081,7 @@
     </row>
     <row r="2" ht="19.5" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -12063,10 +12122,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>183</v>
@@ -12093,7 +12152,7 @@
         <v>227</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E5" s="24">
         <v>100</v>
@@ -12153,13 +12212,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E8" s="26">
         <v>100</v>
@@ -12173,10 +12232,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>244</v>
@@ -12195,7 +12254,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>379</v>
@@ -12217,10 +12276,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>244</v>
@@ -12242,7 +12301,7 @@
         <v>254</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>244</v>
@@ -12261,7 +12320,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>97</v>
@@ -12281,10 +12340,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>244</v>
@@ -12303,10 +12362,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>244</v>
@@ -12325,7 +12384,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>280</v>
@@ -12346,7 +12405,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>220</v>
@@ -12361,10 +12420,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>244</v>
@@ -12426,7 +12485,7 @@
     </row>
     <row r="2" ht="19.5" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -12467,10 +12526,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>183</v>
@@ -12491,10 +12550,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>188</v>
@@ -12513,10 +12572,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>188</v>
@@ -12535,13 +12594,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E7" s="26">
         <v>50</v>
@@ -12603,7 +12662,7 @@
     </row>
     <row r="2" ht="19.5" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -12644,10 +12703,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>183</v>
@@ -12668,10 +12727,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>215</v>
@@ -12688,10 +12747,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>183</v>

--- a/应用数据库设计.xlsx
+++ b/应用数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840" tabRatio="839" firstSheet="3" activeTab="13"/>
+    <workbookView windowWidth="24000" windowHeight="9840" tabRatio="839" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="605">
   <si>
     <t>智慧发改价格大数据应用平台</t>
   </si>
@@ -1364,6 +1364,9 @@
     <t>表名：PSS_rpt_info(报告信息表)</t>
   </si>
   <si>
+    <t>area_code</t>
+  </si>
+  <si>
     <t>需考虑全国</t>
   </si>
   <si>
@@ -1379,10 +1382,7 @@
     <t>rpt_file</t>
   </si>
   <si>
-    <t>报告文件</t>
-  </si>
-  <si>
-    <t>BLOB</t>
+    <t>报告文件名称</t>
   </si>
   <si>
     <t>del_time</t>
@@ -1934,12 +1934,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1994,6 +1994,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2677,10 +2683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2689,132 +2695,132 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2827,7 +2833,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2975,22 +2981,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3144,7 +3153,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
@@ -3510,7 +3519,7 @@
   <dimension ref="B1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3522,378 +3531,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="107"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="76">
+      <c r="B4" s="77">
         <v>1</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="81" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="76">
+      <c r="B5" s="77">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="81" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="76">
+      <c r="B6" s="77">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="76">
+      <c r="B7" s="77">
         <v>4</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="81" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="76">
+      <c r="B8" s="77">
         <v>5</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="81" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="76">
+      <c r="B9" s="77">
         <v>6</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="76">
+      <c r="B10" s="77">
         <v>7</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="81" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="76">
+      <c r="B11" s="77">
         <v>8</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="81" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="76">
+      <c r="B12" s="77">
         <v>9</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="112" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="76">
+      <c r="B13" s="77">
         <v>10</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="81" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="76">
+      <c r="B14" s="77">
         <v>11</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="81" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="76">
+      <c r="B15" s="77">
         <v>12</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="81" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="76">
+      <c r="B16" s="77">
         <v>13</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="81" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="76">
+      <c r="B17" s="77">
         <v>14</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="76">
+      <c r="B18" s="77">
         <v>15</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="81" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="76">
+      <c r="B19" s="77">
         <v>16</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="81" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="76">
+      <c r="B20" s="77">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="81" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="76">
+      <c r="B21" s="77">
         <v>18</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="81" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="76">
+      <c r="B22" s="77">
         <v>19</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="81" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="76">
+      <c r="B23" s="77">
         <v>20</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="81" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="76">
+      <c r="B24" s="77">
         <v>21</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="81" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="76">
+      <c r="B25" s="77">
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="81" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="76">
+      <c r="B26" s="77">
         <v>23</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="81" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="76">
+      <c r="B27" s="77">
         <v>24</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="81" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="76">
+      <c r="B28" s="77">
         <v>25</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="81" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="76">
+      <c r="B29" s="77">
         <v>26</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="81" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="76">
+      <c r="B30" s="77">
         <v>27</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="81" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="76">
+      <c r="B31" s="77">
         <v>28</v>
       </c>
-      <c r="C31" s="108" t="s">
+      <c r="C31" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="81" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="76">
+      <c r="B32" s="77">
         <v>29</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="81" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="76">
+      <c r="B33" s="77">
         <v>30</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="81" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="76">
+      <c r="B34" s="77">
         <v>31</v>
       </c>
-      <c r="C34" s="108" t="s">
+      <c r="C34" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="80" t="s">
+      <c r="D34" s="81" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="76">
+      <c r="B35" s="77">
         <v>32</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="D35" s="81" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4021,7 +4030,7 @@
       </c>
     </row>
     <row r="5" ht="19.5" spans="2:9">
-      <c r="B5" s="58">
+      <c r="B5" s="59">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -4045,7 +4054,7 @@
       </c>
     </row>
     <row r="6" ht="19.5" spans="2:9">
-      <c r="B6" s="58">
+      <c r="B6" s="59">
         <v>2</v>
       </c>
       <c r="C6" s="46" t="s">
@@ -4057,17 +4066,17 @@
       <c r="E6" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="59">
         <v>50</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="60"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" ht="19.5" spans="2:9">
-      <c r="B7" s="58">
+      <c r="B7" s="59">
         <v>3</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -4079,17 +4088,17 @@
       <c r="E7" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="59">
         <v>50</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="30" t="s">
         <v>155</v>
       </c>
       <c r="I7" s="46"/>
     </row>
     <row r="8" ht="19.5" spans="2:9">
-      <c r="B8" s="58">
+      <c r="B8" s="59">
         <v>4</v>
       </c>
       <c r="C8" s="46" t="s">
@@ -4101,10 +4110,10 @@
       <c r="E8" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="59">
         <v>50</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="30" t="s">
         <v>155</v>
       </c>
@@ -4113,7 +4122,7 @@
       </c>
     </row>
     <row r="9" ht="19.5" spans="2:9">
-      <c r="B9" s="58">
+      <c r="B9" s="59">
         <v>5</v>
       </c>
       <c r="C9" s="46" t="s">
@@ -4125,11 +4134,11 @@
       <c r="E9" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="59">
         <v>200</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
   </sheetData>
@@ -4272,7 +4281,7 @@
       <c r="B7" s="30">
         <v>3</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>330</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -4284,9 +4293,9 @@
       <c r="F7" s="22">
         <v>50</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59" t="s">
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4294,7 +4303,7 @@
       <c r="B8" s="30">
         <v>4</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>332</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -4304,11 +4313,11 @@
         <v>183</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="59" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="60" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4326,8 +4335,8 @@
         <v>183</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58" t="s">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59" t="s">
         <v>155</v>
       </c>
       <c r="I9" s="21"/>
@@ -5018,12 +5027,12 @@
       <c r="E16" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="51">
         <v>300</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" ht="19.5" spans="2:9">
       <c r="B17" s="30">
@@ -5038,14 +5047,14 @@
       <c r="E17" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="51">
         <v>1</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="56"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -5071,7 +5080,7 @@
   <sheetPr/>
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -5391,7 +5400,7 @@
       <c r="H16" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="54" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5528,7 +5537,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5805,10 +5814,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5930,7 +5939,7 @@
         <v>227</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -5940,34 +5949,34 @@
       <c r="I7" s="42"/>
     </row>
     <row r="8" ht="19.5" spans="2:9">
-      <c r="B8" s="30">
+      <c r="B8" s="51">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="29"/>
+      <c r="C8" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="51">
+        <v>255</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" ht="19.5" spans="2:9">
       <c r="B9" s="30">
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>183</v>
@@ -5977,28 +5986,28 @@
       <c r="H9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>369</v>
-      </c>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" ht="19.5" spans="2:9">
       <c r="B10" s="30">
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>183</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="30" t="s">
+        <v>155</v>
+      </c>
       <c r="I10" s="29" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" ht="19.5" spans="2:9">
@@ -6006,33 +6015,33 @@
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="12" ht="19.5" spans="2:9">
       <c r="B12" s="30">
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>383</v>
+        <v>374</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>375</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -6046,43 +6055,39 @@
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>418</v>
+        <v>360</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>383</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="30">
-        <v>200</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="29" t="s">
-        <v>419</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" ht="19.5" spans="2:9">
       <c r="B14" s="30">
         <v>10</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F14" s="30">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G14" s="40"/>
-      <c r="H14" s="30" t="s">
-        <v>155</v>
-      </c>
+      <c r="H14" s="30"/>
       <c r="I14" s="29" t="s">
         <v>420</v>
       </c>
@@ -6091,39 +6096,63 @@
       <c r="B15" s="30">
         <v>11</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>422</v>
+      <c r="C15" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>386</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="F15" s="30"/>
+        <v>190</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="H15" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="29" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="16" ht="19.5" spans="2:9">
       <c r="B16" s="30">
         <v>12</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="30" t="s">
+        <v>155</v>
+      </c>
       <c r="I16" s="29"/>
+    </row>
+    <row r="17" ht="19.5" spans="2:9">
+      <c r="B17" s="30">
+        <v>13</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7055,562 +7084,562 @@
   <sheetPr/>
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="3" width="19.625" style="75" customWidth="1"/>
+    <col min="2" max="3" width="19.625" style="76" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="18.75" spans="2:5">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="79" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="81" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="81" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="79" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="81" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="81" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="79" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="81" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="79" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="81" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="81" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="79" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="81" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="79" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="81" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="79" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="81" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="79" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="79" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="81" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="79" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="81" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="79" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="81" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="79" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="81" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="79" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="E20" s="81" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="79" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="81" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="81" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="79" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="81" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="81" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="79" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="81" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="79" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="82" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="79" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="82" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="81" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="79" t="s">
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="81" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="79" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="81" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="79" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="81" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="81" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="79" t="s">
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="81" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="85" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="83" t="s">
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="85" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="83" t="s">
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="D37" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="90" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="88" t="s">
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="90" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="88" t="s">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="89" t="s">
+      <c r="E39" s="90" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="88" t="s">
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="90" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="88" t="s">
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="89" t="s">
+      <c r="E41" s="90" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="89" t="s">
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="90" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="88" t="s">
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="89" t="s">
+      <c r="E43" s="90" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="93" t="s">
+      <c r="D44" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="94" t="s">
+      <c r="E44" s="95" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="93">
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="94">
         <v>2</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="E45" s="95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="97" t="s">
+      <c r="D46" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="98" t="s">
+      <c r="E46" s="99" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="97" t="s">
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="98" t="s">
+      <c r="E47" s="99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="100" t="s">
+      <c r="B48" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="100" t="s">
+      <c r="C48" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="103" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="101" t="s">
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="102" t="s">
+      <c r="E49" s="103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="4:4">
-      <c r="D50" s="104"/>
+      <c r="D50" s="105"/>
     </row>
     <row r="51" spans="4:4">
-      <c r="D51" s="104"/>
+      <c r="D51" s="105"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -10829,30 +10858,30 @@
   </cols>
   <sheetData>
     <row r="2" ht="19.5" spans="2:9">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="44" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" ht="19.5" spans="2:9">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" ht="19.5" spans="2:9">
       <c r="B4" s="24" t="s">
@@ -10861,7 +10890,7 @@
       <c r="C4" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="74" t="s">
         <v>175</v>
       </c>
       <c r="E4" s="24" t="s">
@@ -10955,10 +10984,10 @@
       <c r="E8" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="75">
         <v>2</v>
       </c>
-      <c r="G8" s="74"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="24" t="s">
         <v>155</v>
       </c>
@@ -10977,10 +11006,10 @@
       <c r="E9" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="24" t="s">
         <v>155</v>
       </c>
@@ -10999,10 +11028,10 @@
       <c r="E10" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="24" t="s">
         <v>155</v>
       </c>
@@ -11021,10 +11050,10 @@
       <c r="E11" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="74"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="24" t="s">
         <v>155</v>
       </c>
@@ -11043,10 +11072,10 @@
       <c r="E12" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="24" t="s">
         <v>155</v>
       </c>
@@ -11065,10 +11094,10 @@
       <c r="E13" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="74"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="24" t="s">
         <v>155</v>
       </c>
@@ -11087,10 +11116,10 @@
       <c r="E14" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="24" t="s">
         <v>155</v>
       </c>
@@ -11109,10 +11138,10 @@
       <c r="E15" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="74"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="24" t="s">
         <v>155</v>
       </c>
@@ -11131,10 +11160,10 @@
       <c r="E16" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="24" t="s">
         <v>155</v>
       </c>
@@ -11156,7 +11185,7 @@
       <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="74"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="24" t="s">
         <v>155</v>
       </c>
@@ -11178,7 +11207,7 @@
         <v>183</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="G18" s="74"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="24" t="s">
         <v>155</v>
       </c>
@@ -12796,31 +12825,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="61" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="61" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="61" customWidth="1"/>
-    <col min="4" max="4" width="13" style="61" customWidth="1"/>
-    <col min="5" max="7" width="9" style="61" customWidth="1"/>
-    <col min="8" max="8" width="65" style="61" customWidth="1"/>
-    <col min="9" max="9" width="11" style="61" customWidth="1"/>
-    <col min="10" max="10" width="13" style="61" customWidth="1"/>
-    <col min="11" max="11" width="17" style="61" customWidth="1"/>
-    <col min="12" max="12" width="9" style="61" customWidth="1"/>
-    <col min="13" max="16" width="10" style="61" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="10.5" style="62" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="62" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="62" customWidth="1"/>
+    <col min="4" max="4" width="13" style="62" customWidth="1"/>
+    <col min="5" max="7" width="9" style="62" customWidth="1"/>
+    <col min="8" max="8" width="65" style="62" customWidth="1"/>
+    <col min="9" max="9" width="11" style="62" customWidth="1"/>
+    <col min="10" max="10" width="13" style="62" customWidth="1"/>
+    <col min="11" max="11" width="17" style="62" customWidth="1"/>
+    <col min="12" max="12" width="9" style="62" customWidth="1"/>
+    <col min="13" max="16" width="10" style="62" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:8">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="65" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="66" t="s">
         <v>172</v>
       </c>
     </row>
@@ -12831,32 +12860,32 @@
       <c r="B2" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>175</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="59" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" ht="19.5" spans="1:8">
       <c r="A3" s="46">
@@ -12871,14 +12900,14 @@
       <c r="D3" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="66"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:8">
       <c r="A4" s="46">
@@ -12893,11 +12922,11 @@
       <c r="D4" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="58">
         <v>100</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="58"/>
+      <c r="G4" s="59" t="s">
         <v>155</v>
       </c>
       <c r="H4" s="46"/>
@@ -12915,11 +12944,11 @@
       <c r="D5" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="58">
         <v>50</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="59" t="s">
         <v>155</v>
       </c>
       <c r="H5" s="46"/>
@@ -12937,11 +12966,11 @@
       <c r="D6" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="58">
         <v>50</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>155</v>
       </c>
       <c r="H6" s="46"/>
@@ -12959,9 +12988,9 @@
       <c r="D7" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="46"/>
@@ -12979,14 +13008,14 @@
       <c r="D8" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="58">
         <v>50</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="60"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" ht="19.5" spans="1:8">
       <c r="A9" s="46">
@@ -13001,12 +13030,12 @@
       <c r="D9" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="60" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="61" t="s">
         <v>238</v>
       </c>
     </row>
@@ -13023,12 +13052,12 @@
       <c r="D10" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="60" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="61" t="s">
         <v>241</v>
       </c>
     </row>
@@ -13045,12 +13074,12 @@
       <c r="D11" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="59">
         <v>50</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" ht="19.5" spans="1:8">
       <c r="A12" s="46">
@@ -13065,12 +13094,12 @@
       <c r="D12" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="59">
         <v>50</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" ht="19.5" spans="1:8">
       <c r="A13" s="46">
@@ -13085,12 +13114,12 @@
       <c r="D13" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="59">
         <v>50</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" ht="19.5" spans="1:8">
       <c r="A14" s="46">
@@ -13105,12 +13134,12 @@
       <c r="D14" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="59">
         <v>50</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" ht="19.5" spans="1:8">
       <c r="A15" s="46">
@@ -13125,12 +13154,12 @@
       <c r="D15" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="59">
         <v>50</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="61"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -13167,7 +13196,7 @@
     <col min="3" max="3" width="22.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="14" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="14" customWidth="1"/>
-    <col min="6" max="7" width="9" style="61" customWidth="1"/>
+    <col min="6" max="7" width="9" style="62" customWidth="1"/>
     <col min="8" max="8" width="73.25" style="14" customWidth="1"/>
     <col min="9" max="9" width="13" style="14" customWidth="1"/>
     <col min="10" max="10" width="9" style="14"/>
@@ -13184,8 +13213,8 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="18" t="s">
         <v>172</v>
       </c>
@@ -13218,10 +13247,10 @@
       <c r="E3" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>179</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -13242,10 +13271,10 @@
         <v>183</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="59" t="s">
         <v>155</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -13268,8 +13297,8 @@
       <c r="E5" s="22">
         <v>100</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="59" t="s">
         <v>155</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -13280,7 +13309,7 @@
       <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>258</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -13292,11 +13321,11 @@
       <c r="E6" s="22">
         <v>50</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="59" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="60" t="s">
         <v>259</v>
       </c>
     </row>
@@ -13304,7 +13333,7 @@
       <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>260</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -13316,11 +13345,11 @@
       <c r="E7" s="22">
         <v>50</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="59" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -13328,7 +13357,7 @@
       <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>262</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -13338,11 +13367,11 @@
         <v>183</v>
       </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="59" t="s">
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="60" t="s">
         <v>264</v>
       </c>
     </row>
@@ -13360,8 +13389,8 @@
         <v>183</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="59" t="s">
         <v>155</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -13384,8 +13413,8 @@
       <c r="E10" s="22">
         <v>10</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="21"/>
     </row>
     <row r="11" ht="19.5" spans="1:8">
@@ -13404,8 +13433,8 @@
       <c r="E11" s="22">
         <v>10</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" ht="19.5" spans="1:8">
@@ -13424,8 +13453,8 @@
       <c r="E12" s="22">
         <v>10</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="21"/>
     </row>
   </sheetData>

--- a/应用数据库设计.xlsx
+++ b/应用数据库设计.xlsx
@@ -5903,7 +5903,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/应用数据库设计.xlsx
+++ b/应用数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9840" tabRatio="839" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9840" tabRatio="839" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="615">
   <si>
     <t>智慧发改价格大数据应用平台</t>
   </si>
@@ -1406,16 +1406,7 @@
     <t>数据集名称</t>
   </si>
   <si>
-    <t>tab_name</t>
-  </si>
-  <si>
-    <t>数据表</t>
-  </si>
-  <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>column_val</t>
   </si>
   <si>
     <t>字段取值</t>
@@ -1958,6 +1949,26 @@
   </si>
   <si>
     <t>表名：PSS_analy_info 分析信息表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset_type</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集类型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:分析;2:建模</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>inde_var</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1966,7 +1977,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2516,7 +2527,7 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2607,6 +2618,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2664,6 +2684,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2674,18 +2697,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3011,16 +3022,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="85" t="s">
@@ -3470,16 +3481,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -3670,16 +3681,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -3902,16 +3913,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -4207,16 +4218,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -4579,16 +4590,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -5031,16 +5042,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>400</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -5309,16 +5320,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -5645,8 +5656,8 @@
   </sheetPr>
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5674,16 +5685,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -5758,48 +5769,50 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="28">
+      <c r="B7" s="92">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="27"/>
+      <c r="C7" s="93" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>611</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>612</v>
+      </c>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="93" t="s">
+        <v>614</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93" t="s">
         <v>433</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="44" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B9" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>360</v>
@@ -5818,8 +5831,8 @@
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="28">
-        <v>5</v>
+      <c r="B10" s="92">
+        <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>268</v>
@@ -5839,7 +5852,7 @@
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B11" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>269</v>
@@ -5859,7 +5872,7 @@
     </row>
     <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>270</v>
@@ -5902,7 +5915,7 @@
   </sheetPr>
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5931,16 +5944,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="118" t="s">
-        <v>612</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="114" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -5973,10 +5986,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>183</v>
@@ -5997,10 +6010,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>188</v>
@@ -6019,7 +6032,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>117</v>
@@ -6035,7 +6048,7 @@
         <v>155</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -6065,10 +6078,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>188</v>
@@ -6087,10 +6100,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>188</v>
@@ -6110,7 +6123,7 @@
         <v>224</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>188</v>
@@ -6143,25 +6156,25 @@
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="115">
+      <c r="B13" s="92">
         <v>9</v>
       </c>
-      <c r="C13" s="116" t="s">
-        <v>609</v>
-      </c>
-      <c r="D13" s="116" t="s">
+      <c r="C13" s="93" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>605</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>607</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="93" t="s">
         <v>608</v>
-      </c>
-      <c r="E13" s="116" t="s">
-        <v>610</v>
-      </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="116" t="s">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -6217,16 +6230,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
-        <v>448</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -6259,10 +6272,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>183</v>
@@ -6283,10 +6296,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>188</v>
@@ -6299,7 +6312,7 @@
         <v>155</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -6307,10 +6320,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>220</v>
@@ -6327,10 +6340,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>188</v>
@@ -6349,7 +6362,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>117</v>
@@ -6365,7 +6378,7 @@
         <v>155</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -6373,13 +6386,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
@@ -6391,13 +6404,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -6409,10 +6422,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>220</v>
@@ -6443,7 +6456,7 @@
         <v>155</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -6451,13 +6464,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -6469,13 +6482,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -6938,10 +6951,10 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="97" t="s">
         <v>139</v>
       </c>
       <c r="D34" s="74" t="s">
@@ -6952,8 +6965,8 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="74" t="s">
         <v>76</v>
       </c>
@@ -6962,8 +6975,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
       <c r="D36" s="74" t="s">
         <v>78</v>
       </c>
@@ -6972,10 +6985,10 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="100" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="76" t="s">
@@ -6986,8 +6999,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="76" t="s">
         <v>147</v>
       </c>
@@ -6996,8 +7009,8 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="76" t="s">
         <v>149</v>
       </c>
@@ -7006,8 +7019,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="76" t="s">
         <v>151</v>
       </c>
@@ -7016,8 +7029,8 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="76" t="s">
         <v>153</v>
       </c>
@@ -7026,8 +7039,8 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="76" t="s">
         <v>155</v>
       </c>
@@ -7036,8 +7049,8 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
       <c r="D43" s="76" t="s">
         <v>157</v>
       </c>
@@ -7046,10 +7059,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C44" s="103" t="s">
         <v>160</v>
       </c>
       <c r="D44" s="78" t="s">
@@ -7060,8 +7073,8 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="78">
         <v>2</v>
       </c>
@@ -7070,10 +7083,10 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="105" t="s">
         <v>164</v>
       </c>
       <c r="D46" s="80" t="s">
@@ -7084,8 +7097,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="80" t="s">
         <v>76</v>
       </c>
@@ -7094,10 +7107,10 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="107" t="s">
         <v>168</v>
       </c>
       <c r="D48" s="82" t="s">
@@ -7108,8 +7121,8 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
       <c r="D49" s="82" t="s">
         <v>87</v>
       </c>
@@ -7131,16 +7144,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="10">
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C37:C43"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7180,16 +7193,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="113" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -7222,10 +7235,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>183</v>
@@ -7246,10 +7259,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>188</v>
@@ -7290,10 +7303,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>188</v>
@@ -7312,10 +7325,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>188</v>
@@ -7334,10 +7347,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>188</v>
@@ -7356,10 +7369,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>188</v>
@@ -7372,7 +7385,7 @@
         <v>155</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -7383,7 +7396,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>188</v>
@@ -7564,16 +7577,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="111" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
+      <c r="B3" s="115" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -7606,10 +7619,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>183</v>
@@ -7630,10 +7643,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>188</v>
@@ -7674,10 +7687,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>188</v>
@@ -7718,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>188</v>
@@ -7734,7 +7747,7 @@
         <v>155</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -7742,10 +7755,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>188</v>
@@ -7758,7 +7771,7 @@
         <v>155</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -7766,10 +7779,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>188</v>
@@ -7782,7 +7795,7 @@
         <v>155</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -7790,10 +7803,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>188</v>
@@ -7806,7 +7819,7 @@
         <v>155</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
@@ -7814,10 +7827,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>193</v>
@@ -7828,7 +7841,7 @@
         <v>155</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -7836,10 +7849,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>188</v>
@@ -7905,16 +7918,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="113" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -7947,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>227</v>
@@ -7991,10 +8004,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>183</v>
@@ -8031,7 +8044,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>280</v>
@@ -8051,10 +8064,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>188</v>
@@ -8067,7 +8080,7 @@
         <v>155</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -8075,10 +8088,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>193</v>
@@ -8097,10 +8110,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>220</v>
@@ -8117,10 +8130,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>193</v>
@@ -8137,10 +8150,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>220</v>
@@ -8261,16 +8274,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -8306,7 +8319,7 @@
         <v>277</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>183</v>
@@ -8327,10 +8340,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>183</v>
@@ -8351,10 +8364,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>188</v>
@@ -8373,7 +8386,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>280</v>
@@ -8395,10 +8408,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>188</v>
@@ -8411,7 +8424,7 @@
         <v>155</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -8419,10 +8432,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>193</v>
@@ -8439,10 +8452,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>220</v>
@@ -8594,16 +8607,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="113" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -8660,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>134</v>
@@ -8684,10 +8697,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>188</v>
@@ -8706,10 +8719,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>183</v>
@@ -8729,7 +8742,7 @@
         <v>218</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>215</v>
@@ -8771,7 +8784,7 @@
         <v>224</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>188</v>
@@ -8933,7 +8946,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="33"/>
@@ -8944,16 +8957,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
-        <v>520</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="113" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -8986,10 +8999,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>183</v>
@@ -9010,10 +9023,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>183</v>
@@ -9034,10 +9047,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>193</v>
@@ -9052,10 +9065,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>193</v>
@@ -9070,10 +9083,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>193</v>
@@ -9088,10 +9101,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>193</v>
@@ -9106,10 +9119,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>193</v>
@@ -9190,16 +9203,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
-        <v>526</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="113" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -9232,10 +9245,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>183</v>
@@ -9256,10 +9269,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>215</v>
@@ -9298,10 +9311,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>188</v>
@@ -9320,10 +9333,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>188</v>
@@ -9342,10 +9355,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>220</v>
@@ -9362,13 +9375,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -9382,10 +9395,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>188</v>
@@ -9524,16 +9537,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
-        <v>541</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="A2" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -9593,7 +9606,7 @@
         <v>272</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>183</v>
@@ -9610,10 +9623,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>188</v>
@@ -9632,10 +9645,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>188</v>
@@ -9654,10 +9667,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>188</v>
@@ -9676,10 +9689,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>188</v>
@@ -9692,7 +9705,7 @@
         <v>155</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
@@ -9700,10 +9713,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>188</v>
@@ -9784,16 +9797,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="A2" s="112" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -9850,10 +9863,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>188</v>
@@ -9872,10 +9885,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>188</v>
@@ -9894,10 +9907,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>188</v>
@@ -9916,10 +9929,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>188</v>
@@ -10006,16 +10019,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="A2" s="112" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -10075,7 +10088,7 @@
         <v>272</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>188</v>
@@ -10094,10 +10107,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>188</v>
@@ -10116,10 +10129,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>188</v>
@@ -10138,7 +10151,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>379</v>
@@ -10160,10 +10173,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>188</v>
@@ -10182,10 +10195,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>188</v>
@@ -10204,10 +10217,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>188</v>
@@ -10226,10 +10239,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>188</v>
@@ -10268,10 +10281,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>188</v>
@@ -10334,16 +10347,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="22" t="s">
@@ -10855,16 +10868,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="A2" s="112" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -10921,10 +10934,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>188</v>
@@ -10943,10 +10956,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>188</v>
@@ -10965,7 +10978,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>379</v>
@@ -10987,10 +11000,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>188</v>
@@ -11009,10 +11022,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>188</v>
@@ -11031,10 +11044,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>193</v>
@@ -11053,10 +11066,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>193</v>
@@ -11075,10 +11088,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>193</v>
@@ -11117,10 +11130,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>188</v>
@@ -11185,16 +11198,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
-        <v>570</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="A2" s="112" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -11227,10 +11240,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>183</v>
@@ -11293,10 +11306,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>244</v>
@@ -11315,10 +11328,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>244</v>
@@ -11337,10 +11350,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="20"/>
@@ -11355,10 +11368,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="20"/>
@@ -11373,10 +11386,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>244</v>
@@ -11398,7 +11411,7 @@
         <v>254</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>244</v>
@@ -11417,7 +11430,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>97</v>
@@ -11437,10 +11450,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>244</v>
@@ -11459,10 +11472,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>244</v>
@@ -11503,10 +11516,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>244</v>
@@ -11569,16 +11582,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
-        <v>587</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="A2" s="112" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -11611,10 +11624,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>183</v>
@@ -11641,7 +11654,7 @@
         <v>227</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E5" s="22">
         <v>100</v>
@@ -11701,13 +11714,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E8" s="24">
         <v>100</v>
@@ -11721,10 +11734,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>244</v>
@@ -11743,7 +11756,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>379</v>
@@ -11765,10 +11778,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>244</v>
@@ -11790,7 +11803,7 @@
         <v>254</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>244</v>
@@ -11809,7 +11822,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>97</v>
@@ -11829,10 +11842,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>244</v>
@@ -11851,10 +11864,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>244</v>
@@ -11873,7 +11886,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>280</v>
@@ -11894,7 +11907,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>220</v>
@@ -11909,10 +11922,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>244</v>
@@ -11972,16 +11985,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
-        <v>591</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="A2" s="112" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -12014,10 +12027,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>183</v>
@@ -12038,10 +12051,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>188</v>
@@ -12060,10 +12073,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>188</v>
@@ -12082,13 +12095,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E7" s="24">
         <v>50</v>
@@ -12148,16 +12161,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
-        <v>598</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="A2" s="118" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -12190,10 +12203,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>183</v>
@@ -12214,10 +12227,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>215</v>
@@ -12234,10 +12247,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>183</v>
@@ -12297,13 +12310,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>
       <c r="H1" s="58" t="s">
@@ -12675,16 +12688,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -12961,16 +12974,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -13105,23 +13118,23 @@
       <c r="I9" s="29"/>
     </row>
     <row r="10" spans="2:9" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="115">
+      <c r="B10" s="92">
         <v>6</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="93" t="s">
+        <v>601</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>602</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>603</v>
+      </c>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="94" t="s">
         <v>604</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>605</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>606</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="117" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -13180,16 +13193,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -13482,16 +13495,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
@@ -13806,16 +13819,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">

--- a/应用数据库设计.xlsx
+++ b/应用数据库设计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\dfjinxin-fagaiwei\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1DA2DA-8553-46E6-95B8-61AE9A1DFC30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9840" tabRatio="839" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -33,14 +39,15 @@
     <sheet name="数据集切分" sheetId="21" r:id="rId24"/>
     <sheet name="模型参数表" sheetId="23" r:id="rId25"/>
     <sheet name="网络研报信息" sheetId="24" r:id="rId26"/>
-    <sheet name="商品指标基础信息表" sheetId="26" r:id="rId27"/>
-    <sheet name="宏观指标基础信息表" sheetId="27" r:id="rId28"/>
-    <sheet name="商品指标取值表" sheetId="28" r:id="rId29"/>
-    <sheet name="宏观指标取值表" sheetId="29" r:id="rId30"/>
-    <sheet name="商品价格" sheetId="34" r:id="rId31"/>
-    <sheet name="商品价格剔除因素表" sheetId="35" r:id="rId32"/>
-    <sheet name="大数据平台数据结构表" sheetId="37" r:id="rId33"/>
-    <sheet name="数据更新状态表" sheetId="38" r:id="rId34"/>
+    <sheet name="数据源信息表" sheetId="39" r:id="rId27"/>
+    <sheet name="商品指标基础信息表" sheetId="26" r:id="rId28"/>
+    <sheet name="宏观指标基础信息表" sheetId="27" r:id="rId29"/>
+    <sheet name="商品指标取值表" sheetId="28" r:id="rId30"/>
+    <sheet name="宏观指标取值表" sheetId="29" r:id="rId31"/>
+    <sheet name="商品价格" sheetId="34" r:id="rId32"/>
+    <sheet name="商品价格剔除因素表" sheetId="35" r:id="rId33"/>
+    <sheet name="大数据平台数据结构表" sheetId="37" r:id="rId34"/>
+    <sheet name="数据更新状态表" sheetId="38" r:id="rId35"/>
   </sheets>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
@@ -50,12 +57,44 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>DFJX</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>DFJX:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DFJX</author>
+  </authors>
+  <commentList>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{5CF0E8A1-AB1E-440B-B042-6389A5EF907B}">
       <text>
         <r>
           <rPr>
@@ -82,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="644">
   <si>
     <t>智慧发改价格大数据应用平台</t>
   </si>
@@ -1971,15 +2010,143 @@
     <t>inde_var</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>数据源信息表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SS_data_sources_access</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：字段长度为字符</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：PSS_data_sources_access</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_id</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_name</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>example_name</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_address</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_port</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_remark</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_state</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源ID</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源名称</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源类型</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例名</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源地址</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口号</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源描述</t>
+  </si>
+  <si>
+    <t>接入状态</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,6 +2278,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2162,7 +2361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2338,6 +2537,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2355,7 +2604,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2699,22 +2948,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="4"/>
-    <cellStyle name="常规 4" xfId="5"/>
-    <cellStyle name="常规 4 2" xfId="6"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="超链接 2" xfId="7"/>
+    <cellStyle name="超链接 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2763,7 +3054,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2796,9 +3087,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2831,6 +3139,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3006,11 +3331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3313,33 +3638,33 @@
       <c r="B28" s="68">
         <v>25</v>
       </c>
-      <c r="C28" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>53</v>
+      <c r="C28" s="88" t="s">
+        <v>615</v>
+      </c>
+      <c r="D28" s="119" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" s="68">
         <v>26</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>54</v>
+      <c r="C29" s="87" t="s">
+        <v>52</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="68">
         <v>27</v>
       </c>
-      <c r="C30" s="87" t="s">
-        <v>56</v>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
@@ -3347,21 +3672,21 @@
         <v>28</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="68">
         <v>29</v>
       </c>
-      <c r="C32" s="88" t="s">
-        <v>60</v>
+      <c r="C32" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="D32" s="72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
@@ -3369,21 +3694,21 @@
         <v>30</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="68">
         <v>31</v>
       </c>
-      <c r="C34" s="87" t="s">
-        <v>64</v>
+      <c r="C34" s="88" t="s">
+        <v>62</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
@@ -3391,9 +3716,20 @@
         <v>32</v>
       </c>
       <c r="C35" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="68">
+        <v>33</v>
+      </c>
+      <c r="C36" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D36" s="72" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3410,46 +3746,47 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="'价格预警配置表 '!A1" display="价格预警配置表"/>
-    <hyperlink ref="C7" location="商品配置表!A1" display="商品配置表"/>
-    <hyperlink ref="C9" location="用户表!A1" display="用户表"/>
-    <hyperlink ref="C8" location="价格预警详情表!A1" display="价格预警表"/>
-    <hyperlink ref="C14" location="调度配置信息表!A1" display="调度配置信息表"/>
-    <hyperlink ref="C15" location="报告配置表!A1" display="报告配置表"/>
-    <hyperlink ref="C16" location="报告任务日志表!A1" display="报告任务日志表"/>
-    <hyperlink ref="C17" location="报告信息表!A1" display="报告信息表"/>
-    <hyperlink ref="C10" location="用户角色表!A1" display="用户角色表"/>
-    <hyperlink ref="C11" location="角色权限表!A1" display="角色权限表"/>
-    <hyperlink ref="C13" location="菜单信息表!A1" display="菜单信息表"/>
-    <hyperlink ref="C18" location="数据集信息表!A1" display="数据集信息表"/>
-    <hyperlink ref="C19" location="分析信息表!A1" display="分析信息表"/>
-    <hyperlink ref="C23" location="价格预测结果!A1" display="价格预测结果"/>
-    <hyperlink ref="C24" location="指数预测结果!A1" display="指数预测结果"/>
-    <hyperlink ref="C20" location="分析结果表!A1" display="分析结果表"/>
-    <hyperlink ref="C21" location="模型基础信息表!A1" display="模型基础信息表"/>
-    <hyperlink ref="C26" location="模型参数表!A1" display="模型参数表"/>
-    <hyperlink ref="C25" location="数据集切分!A1" display="数据集切分"/>
-    <hyperlink ref="C27" location="网络研报信息!A1" display="网络研报信息"/>
-    <hyperlink ref="C5" location="商品清单表!A1" display="商品清单表"/>
-    <hyperlink ref="C22" location="模型基础信息表!A1" display="模型训练结果表"/>
-    <hyperlink ref="C6" location="智慧价格码值信息表!A1" display="智慧价格码值信息表"/>
-    <hyperlink ref="C28" location="商品指标基础信息表!A1" display="商品指标基础信息表"/>
-    <hyperlink ref="C30" location="商品指标取值表!A1" display="商品指标取值表"/>
-    <hyperlink ref="C29" location="宏观指标基础信息表!A1" display="宏观指标基础信息表"/>
-    <hyperlink ref="C31" location="宏观指标取值表!A1" display="宏观指标取值表"/>
-    <hyperlink ref="C32" location="商品价格!A1" display="商品价格表"/>
-    <hyperlink ref="C33" location="商品价格剔除因素表!A1" display="商品价格剔除因素表"/>
-    <hyperlink ref="C12" location="用户机构信息!A1" display="用户机构信息表"/>
-    <hyperlink ref="C34" location="商品价格表!A1" display="大数据平台数据结构表"/>
-    <hyperlink ref="C35" location="商品价格表!A1" display="数据更新状态表"/>
+    <hyperlink ref="C4" location="'价格预警配置表 '!A1" display="价格预警配置表" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" location="商品配置表!A1" display="商品配置表" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C9" location="用户表!A1" display="用户表" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" location="价格预警详情表!A1" display="价格预警表" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C14" location="调度配置信息表!A1" display="调度配置信息表" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C15" location="报告配置表!A1" display="报告配置表" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C16" location="报告任务日志表!A1" display="报告任务日志表" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C17" location="报告信息表!A1" display="报告信息表" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" location="用户角色表!A1" display="用户角色表" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" location="角色权限表!A1" display="角色权限表" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C13" location="菜单信息表!A1" display="菜单信息表" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C18" location="数据集信息表!A1" display="数据集信息表" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C19" location="分析信息表!A1" display="分析信息表" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C23" location="价格预测结果!A1" display="价格预测结果" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C24" location="指数预测结果!A1" display="指数预测结果" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C20" location="分析结果表!A1" display="分析结果表" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C21" location="模型基础信息表!A1" display="模型基础信息表" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C26" location="模型参数表!A1" display="模型参数表" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C25" location="数据集切分!A1" display="数据集切分" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C27" location="网络研报信息!A1" display="网络研报信息" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C5" location="商品清单表!A1" display="商品清单表" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C22" location="模型基础信息表!A1" display="模型训练结果表" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C6" location="智慧价格码值信息表!A1" display="智慧价格码值信息表" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C29" location="商品指标基础信息表!A1" display="商品指标基础信息表" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C31" location="商品指标取值表!A1" display="商品指标取值表" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C30" location="宏观指标基础信息表!A1" display="宏观指标基础信息表" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C32" location="宏观指标取值表!A1" display="宏观指标取值表" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C33" location="商品价格!A1" display="商品价格表" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C34" location="商品价格剔除因素表!A1" display="商品价格剔除因素表" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C12" location="用户机构信息!A1" display="用户机构信息表" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C35" location="商品价格表!A1" display="大数据平台数据结构表" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C36" location="商品价格表!A1" display="数据更新状态表" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C28" location="数据源信息表!A1" display="数据源信息表" xr:uid="{DF51609C-7198-448F-A74F-ED603B561CD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3642,14 +3979,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3874,14 +4211,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4178,14 +4515,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4551,14 +4888,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -5005,14 +5342,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5281,14 +5618,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -5642,7 +5979,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5650,14 +5987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5902,14 +6239,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6190,7 +6527,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6198,7 +6535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6569,14 +6906,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -7144,16 +7481,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="10">
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7161,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7542,7 +7879,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7550,7 +7887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7878,7 +8215,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7886,7 +8223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8235,14 +8572,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -8568,14 +8905,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8916,14 +9253,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9164,18 +9501,18 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I12"/>
+      <selection activeCell="B4" sqref="B4:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9198,8 +9535,8 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
-      <c r="I2" s="38" t="s">
-        <v>172</v>
+      <c r="I2" s="122" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -9494,7 +9831,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9502,7 +9839,337 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AE2298-1922-445D-A9D1-2867DCF56F9D}">
+  <dimension ref="B2:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="121" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="I2" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="123"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="127" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="123"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>621</v>
+      </c>
+      <c r="D6" s="130" t="s">
+        <v>633</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="28">
+        <v>11</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="131" t="s">
+        <v>643</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>622</v>
+      </c>
+      <c r="D7" s="130" t="s">
+        <v>634</v>
+      </c>
+      <c r="E7" s="130" t="s">
+        <v>631</v>
+      </c>
+      <c r="F7" s="28">
+        <v>255</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="28">
+        <v>3</v>
+      </c>
+      <c r="C8" s="130" t="s">
+        <v>623</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>635</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="28">
+        <v>255</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="28">
+        <v>4</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>624</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>636</v>
+      </c>
+      <c r="E9" s="130" t="s">
+        <v>631</v>
+      </c>
+      <c r="F9" s="28">
+        <v>255</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="28">
+        <v>5</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>625</v>
+      </c>
+      <c r="D10" s="130" t="s">
+        <v>637</v>
+      </c>
+      <c r="E10" s="130" t="s">
+        <v>631</v>
+      </c>
+      <c r="F10" s="28">
+        <v>255</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="28">
+        <v>6</v>
+      </c>
+      <c r="C11" s="130" t="s">
+        <v>626</v>
+      </c>
+      <c r="D11" s="130" t="s">
+        <v>638</v>
+      </c>
+      <c r="E11" s="130" t="s">
+        <v>631</v>
+      </c>
+      <c r="F11" s="28">
+        <v>255</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="28">
+        <v>7</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>627</v>
+      </c>
+      <c r="D12" s="130" t="s">
+        <v>639</v>
+      </c>
+      <c r="E12" s="130" t="s">
+        <v>631</v>
+      </c>
+      <c r="F12" s="28">
+        <v>255</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="28">
+        <v>8</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>628</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>640</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>631</v>
+      </c>
+      <c r="F13" s="28">
+        <v>255</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="28">
+        <v>9</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>629</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>641</v>
+      </c>
+      <c r="E14" s="130" t="s">
+        <v>631</v>
+      </c>
+      <c r="F14" s="28">
+        <v>255</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="28">
+        <v>10</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>632</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>642</v>
+      </c>
+      <c r="E15" s="130" t="s">
+        <v>630</v>
+      </c>
+      <c r="F15" s="28">
+        <v>11</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="28"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{FD02A4F0-D332-42B9-8254-75851220D69C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9754,15 +10421,15 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="目录!A1" display="返回"/>
+    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9974,15 +10641,531 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="目录!A1" display="返回"/>
+    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="26"/>
+    <col min="2" max="2" width="11.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="26" customWidth="1"/>
+    <col min="6" max="8" width="11.75" style="26" customWidth="1"/>
+    <col min="9" max="9" width="29.75" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B3" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="2:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="22">
+        <v>100</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="66">
+        <v>2</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="22">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B11" s="22">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B12" s="22">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B13" s="22">
+        <v>9</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B14" s="22">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B15" s="22">
+        <v>11</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B16" s="22">
+        <v>12</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B17" s="22">
+        <v>13</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B18" s="22">
+        <v>14</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B19" s="22">
+        <v>15</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="22">
+        <v>16</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="22">
+        <v>17</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="22">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B23" s="22">
+        <v>19</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="22">
+        <v>50</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B24" s="22">
+        <v>20</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="22">
+        <v>200</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10304,531 +11487,15 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="目录!A1" display="返回"/>
+    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B2:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="2" width="11.75" style="26" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="26" customWidth="1"/>
-    <col min="6" max="8" width="11.75" style="26" customWidth="1"/>
-    <col min="9" max="9" width="29.75" style="26" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-    </row>
-    <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="2:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="22">
-        <v>2</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="22">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="22">
-        <v>100</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="22">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="66">
-        <v>2</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="22">
-        <v>5</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="22">
-        <v>6</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="22">
-        <v>7</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="22">
-        <v>8</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="22">
-        <v>9</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="22">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B15" s="22">
-        <v>11</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="22">
-        <v>12</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="22">
-        <v>13</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="22">
-        <v>1</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="22">
-        <v>14</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="22">
-        <v>15</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="22">
-        <v>16</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="22">
-        <v>17</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="22">
-        <v>18</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="22">
-        <v>19</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="22">
-        <v>50</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="22">
-        <v>20</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="22">
-        <v>200</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:I3"/>
-  </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11153,15 +11820,15 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="目录!A1" display="返回"/>
+    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11541,14 +12208,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="数据表清单!A1" display="返回"/>
+    <hyperlink ref="H1" location="数据表清单!A1" display="返回" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11943,14 +12610,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="数据表清单!A1" display="返回"/>
+    <hyperlink ref="H1" location="数据表清单!A1" display="返回" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12118,15 +12785,15 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="目录!A1" display="返回"/>
+    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-2000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12278,7 +12945,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="目录!A1" display="返回"/>
+    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12286,7 +12953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -12643,14 +13310,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="数据表清单!A1" display="返回"/>
+    <hyperlink ref="H1" location="数据表清单!A1" display="返回" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12931,7 +13598,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="目录!A1" display="返回"/>
+    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12939,7 +13606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -13150,7 +13817,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -13158,7 +13825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -13456,14 +14123,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13780,14 +14447,14 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -13968,7 +14635,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" location="目录!A1" display="返回"/>
+    <hyperlink ref="I2" location="目录!A1" display="返回" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
